--- a/Desafio5/Inputs/Layout_Output.xlsx
+++ b/Desafio5/Inputs/Layout_Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationEdge\Desafios\Desafio5\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75718EE-728B-4D73-B526-3032C58BEBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB76DD6-33ED-4CE7-BEFB-4F0FD2479DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{8A0A2EAA-D0B4-44E3-B728-67CEA6E535A5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Descrição</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Preço</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
 </sst>
 </file>
@@ -419,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07531B73-3645-4C74-A105-C30A255B558E}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +437,7 @@
     <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,6 +452,9 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
